--- a/xlsx_files/Race24.xlsx
+++ b/xlsx_files/Race24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014521F8-5342-420D-A27E-4A090E632147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB1D88-470F-4A9D-9EAF-401B7ECE9346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Track Name</t>
   </si>
@@ -67,343 +67,13 @@
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
-      <t>Andrii Vorona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Viktor Abramov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Kniazhytsyn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
       <t>Yehor Zvuzdetskyi</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yurii Kit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Panchenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Vasyliuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Borodai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Berkunskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artem Khorolskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ruslan Bezuhlov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Timur Ostapchuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yaroslav Prytula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stas Kulakov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Olexandr Yakunin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yevhen Sayko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Danylo Chornyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anton Orlenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kyrylo Kuzin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Constantine Levitskiy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Gnyirya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tymofii Istomin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evgen Artemenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleh Pitcik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Viktor Kalmus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denys Stanovych</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artem Sakun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Lysunets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stanislav Pochtaruk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Max Bryl</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maksym Bulbakh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kostiantyn Romanenko</t>
-    </r>
-  </si>
-  <si>
     <t>Paul Ricard (race 2)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Bondar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nazarii Prokopov</t>
-    </r>
-  </si>
-  <si>
     <t>Dominik Khoroshavin</t>
   </si>
   <si>
@@ -435,13 +105,121 @@
   </si>
   <si>
     <t>01:53.3570</t>
+  </si>
+  <si>
+    <t>Pavlo Polovchuk</t>
+  </si>
+  <si>
+    <t>Artem Khorolskyi</t>
+  </si>
+  <si>
+    <t>Oleksii Panchenko</t>
+  </si>
+  <si>
+    <t>Andrii Vorona</t>
+  </si>
+  <si>
+    <t>Oleksandr Kniazhytsyn</t>
+  </si>
+  <si>
+    <t>Yehor Zvuzdetskyi</t>
+  </si>
+  <si>
+    <t>Oleh Pitcik</t>
+  </si>
+  <si>
+    <t>Ruslan Bezuhlov</t>
+  </si>
+  <si>
+    <t>Oleksandr Borodai</t>
+  </si>
+  <si>
+    <t>Viktor Abramov</t>
+  </si>
+  <si>
+    <t>Evgen Artemenko</t>
+  </si>
+  <si>
+    <t>Yurii Kit</t>
+  </si>
+  <si>
+    <t>Danylo Chornyi</t>
+  </si>
+  <si>
+    <t>Stas Kulakov</t>
+  </si>
+  <si>
+    <t>Viktor Kalmus</t>
+  </si>
+  <si>
+    <t>Oleksii Berkunskyi</t>
+  </si>
+  <si>
+    <t>Andrii Bondar</t>
+  </si>
+  <si>
+    <t>Andrii Lysunets</t>
+  </si>
+  <si>
+    <t>Anton Orlenko</t>
+  </si>
+  <si>
+    <t>Kyrylo Kuzin</t>
+  </si>
+  <si>
+    <t>Oleksandr Vasyliuk</t>
+  </si>
+  <si>
+    <t>Olexandr Yakunin</t>
+  </si>
+  <si>
+    <t>Oleksandr Gnyirya</t>
+  </si>
+  <si>
+    <t>Timur Ostapchuk</t>
+  </si>
+  <si>
+    <t>Maksym Bulbakh</t>
+  </si>
+  <si>
+    <t>Denys Stanovych</t>
+  </si>
+  <si>
+    <t>Constantine Levitskiy</t>
+  </si>
+  <si>
+    <t>Max Bryl</t>
+  </si>
+  <si>
+    <t>Artem Sakun</t>
+  </si>
+  <si>
+    <t>Tymofii Istomin</t>
+  </si>
+  <si>
+    <t>Kostiantyn Romanenko</t>
+  </si>
+  <si>
+    <t>Yevhen Sayko</t>
+  </si>
+  <si>
+    <t>Nazarii Prokopov</t>
+  </si>
+  <si>
+    <t>Stanislav Pochtaruk</t>
+  </si>
+  <si>
+    <t>Yaroslav Prytula</t>
+  </si>
+  <si>
+    <t>Konstantin Berezanskiy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +242,13 @@
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,13 +270,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,14 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -815,33 +603,33 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>45112</v>
@@ -853,325 +641,329 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
+      <c r="B27" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
+      <c r="B29" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
+      <c r="B31" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
+      <c r="B32" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
+      <c r="B33" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>30</v>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
+      <c r="B36" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>43</v>
+      <c r="B37" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>47</v>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
+      <c r="B39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>21</v>
+      <c r="B40" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2"/>
